--- a/data/arte_urbana_manual.xlsx
+++ b/data/arte_urbana_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao.palmeiro/Documents/GitHub/amadora-arte-urbana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F52FD6-8EC2-C943-9233-8FC67E391962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3C19A-6193-CB4B-A587-CA1A4BD154E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,9 @@
     <t>http://geoportal.cm-amadora.pt/files_site_internet/links/pcultural/id1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">Odeith. Graffiti Anamórfico (2010). ""Acho que quem gosta de graffiti acaba sempre por fazer quase o ritual todo."" Peça realizada no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora. </t>
+  </si>
+  <si>
     <t>Bob Marley</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>http://geoportal.cm-amadora.pt/files_site_internet/links/pcultural/id2.jpg</t>
   </si>
   <si>
+    <t>Dzenhart (2010). Mural realizado no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
+  </si>
+  <si>
     <t>Os verdadeiros heróis nunca serão esquecidos</t>
   </si>
   <si>
@@ -964,6 +970,9 @@
     <t>http://geoportal.cm-amadora.pt/files_site_internet/links/pcultural/id110.jpg</t>
   </si>
   <si>
+    <t>Odeith (2010). ""Era mais influenciado pelo que vivia no dia-a-dia."" Mural localizado no Bairro da Cova da Moura, na freguesia da Damaia. Exibe uma figura mediática e vista como um exemplo na comunidade, o intérprete Bob Marley.</t>
+  </si>
+  <si>
     <t>Aka Corleone (2012). “Este é um dos meus murais preferidos. Sempre fui um frequentador do festival Amadora BD e sou muito influenciado pela banda desenhada. Este mural foi o primeiro no qual desenvolvi um estilo que ainda não tinha transportado para</t>
   </si>
   <si>
@@ -1040,17 +1049,13 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>Descricao_manual</t>
   </si>
   <si>
     <t>«Acho que quem gosta de graffiti acaba sempre por fazer quase o ritual todo.»
 Peça realizada no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
-  </si>
-  <si>
-    <t>Mural realizado no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
-  </si>
-  <si>
-    <t>«Era mais influenciado pelo que vivia no dia-a-dia.»
-Mural localizado no Bairro da Cova da Moura, na freguesia da Damaia. Exibe uma figura mediática e vista como um exemplo na comunidade, o intérprete Bob Marley.</t>
   </si>
 </sst>
 </file>
@@ -1433,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1451,10 +1456,10 @@
     <col min="8" max="8" width="71.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="100.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1480,16 +1485,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1521,24 +1529,27 @@
         <v>-9.2066844837413999</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>2010</v>
@@ -1547,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>38.759656800393202</v>
@@ -1556,24 +1567,24 @@
         <v>-9.2017059367270306</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2010</v>
@@ -1582,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>38.7463966603854</v>
@@ -1591,33 +1602,33 @@
         <v>-9.2138294098995903</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>2013</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <v>38.741135561172499</v>
@@ -1626,18 +1637,18 @@
         <v>-9.2168303858181808</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1652,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>38.750665946881703</v>
@@ -1661,18 +1672,18 @@
         <v>-9.2116675736760598</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1687,7 +1698,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7">
         <v>38.750519710645399</v>
@@ -1696,24 +1707,24 @@
         <v>-9.2112686659220202</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2010</v>
@@ -1722,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>38.759621255192499</v>
@@ -1731,18 +1742,18 @@
         <v>-9.2013729477920396</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1757,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>38.758780978518701</v>
@@ -1766,18 +1777,18 @@
         <v>-9.2076384756168501</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1792,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <v>38.758775355634697</v>
@@ -1801,18 +1812,18 @@
         <v>-9.2073858922802998</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1827,7 +1838,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>38.758777834255497</v>
@@ -1836,18 +1847,18 @@
         <v>-9.2074690258723404</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1862,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>38.758751838138998</v>
@@ -1871,18 +1882,18 @@
         <v>-9.2072377079251897</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1897,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <v>38.758678354563401</v>
@@ -1906,24 +1917,24 @@
         <v>-9.2068944077994193</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>2010</v>
@@ -1932,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I14">
         <v>38.759355562328302</v>
@@ -1941,24 +1952,24 @@
         <v>-9.2025370861074194</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>2010</v>
@@ -1967,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I15">
         <v>38.759618696569603</v>
@@ -1976,24 +1987,24 @@
         <v>-9.2018124298676494</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>2010</v>
@@ -2002,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <v>38.759546919278201</v>
@@ -2011,7 +2022,7 @@
         <v>-9.20201175697742</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2019,16 +2030,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>2010</v>
@@ -2037,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <v>38.759695894286402</v>
@@ -2046,7 +2057,7 @@
         <v>-9.2015975484785795</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2054,16 +2065,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18">
         <v>2010</v>
@@ -2072,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I18">
         <v>38.759751945207299</v>
@@ -2081,7 +2092,7 @@
         <v>-9.2014472831868606</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2089,7 +2100,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -2098,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>2010</v>
@@ -2107,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I19">
         <v>38.759582658728299</v>
@@ -2116,7 +2127,7 @@
         <v>-9.2014791691092803</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2124,16 +2135,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>2010</v>
@@ -2142,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I20">
         <v>38.759534296471799</v>
@@ -2151,7 +2162,7 @@
         <v>-9.2016121308032801</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2159,16 +2170,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21">
         <v>2010</v>
@@ -2177,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I21">
         <v>38.7594852407993</v>
@@ -2186,7 +2197,7 @@
         <v>-9.2017470262420602</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2194,16 +2205,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22">
         <v>2010</v>
@@ -2212,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I22">
         <v>38.759426741591902</v>
@@ -2221,7 +2232,7 @@
         <v>-9.2019078844053706</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2229,16 +2240,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>2010</v>
@@ -2247,7 +2258,7 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I23">
         <v>38.759346712840099</v>
@@ -2256,7 +2267,7 @@
         <v>-9.2021279109520506</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2264,10 +2275,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -2282,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I24">
         <v>38.7587941809577</v>
@@ -2291,7 +2302,7 @@
         <v>-9.2079111328577703</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2299,10 +2310,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -2317,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I25">
         <v>38.758789453637199</v>
@@ -2326,7 +2337,7 @@
         <v>-9.2078394354136108</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2334,16 +2345,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26">
         <v>2012</v>
@@ -2352,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26">
         <v>38.764213699952897</v>
@@ -2361,7 +2372,7 @@
         <v>-9.2143571896963508</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2369,25 +2380,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27">
         <v>2013</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>38.741171792025</v>
@@ -2396,7 +2407,7 @@
         <v>-9.2163161454623292</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2404,25 +2415,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>2003</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I28">
         <v>38.741170558445198</v>
@@ -2431,7 +2442,7 @@
         <v>-9.2164366174439891</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2439,25 +2450,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <v>2007</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I29">
         <v>38.741163696232398</v>
@@ -2466,7 +2477,7 @@
         <v>-9.2166210796926595</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2477,22 +2488,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30">
         <v>2009</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30">
         <v>38.741159244358101</v>
@@ -2501,7 +2512,7 @@
         <v>-9.2167077803653701</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2509,16 +2520,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31">
         <v>2014</v>
@@ -2527,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <v>38.745542102320698</v>
@@ -2536,7 +2547,7 @@
         <v>-9.21178034485742</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2544,22 +2555,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I32">
         <v>38.741141979402002</v>
@@ -2568,7 +2579,7 @@
         <v>-9.2157081124653608</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2576,25 +2587,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>2010</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I33">
         <v>38.741422209945497</v>
@@ -2603,7 +2614,7 @@
         <v>-9.2150594425527501</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2611,10 +2622,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2629,7 +2640,7 @@
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I34">
         <v>38.750678016781698</v>
@@ -2638,7 +2649,7 @@
         <v>-9.2115251051653502</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2646,7 +2657,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -2664,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>38.750759310987803</v>
@@ -2673,7 +2684,7 @@
         <v>-9.2111893326891305</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2681,16 +2692,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F36">
         <v>2010</v>
@@ -2699,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I36">
         <v>38.759262091029797</v>
@@ -2708,7 +2719,7 @@
         <v>-9.2023605924423109</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2716,10 +2727,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2734,7 +2745,7 @@
         <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I37">
         <v>38.750651168594899</v>
@@ -2743,7 +2754,7 @@
         <v>-9.2118419110068306</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2751,10 +2762,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -2769,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I38">
         <v>38.750519467514998</v>
@@ -2778,7 +2789,7 @@
         <v>-9.2116855457874092</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2786,10 +2797,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -2804,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I39">
         <v>38.750531041353398</v>
@@ -2813,7 +2824,7 @@
         <v>-9.2115490057023397</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2821,10 +2832,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -2839,7 +2850,7 @@
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I40">
         <v>38.7508122140935</v>
@@ -2848,7 +2859,7 @@
         <v>-9.2111355805787003</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2856,10 +2867,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2874,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I41">
         <v>38.751024240594603</v>
@@ -2883,7 +2894,7 @@
         <v>-9.2110094625914805</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -2891,10 +2902,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2909,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I42">
         <v>38.751091933895303</v>
@@ -2918,7 +2929,7 @@
         <v>-9.2109840923753605</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2926,10 +2937,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2944,7 +2955,7 @@
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I43">
         <v>38.750953409155002</v>
@@ -2953,7 +2964,7 @@
         <v>-9.2110391107521306</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2961,10 +2972,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -2979,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I44">
         <v>38.751178479011401</v>
@@ -2988,7 +2999,7 @@
         <v>-9.2109510684198401</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -2996,10 +3007,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3014,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I45">
         <v>38.750720340239802</v>
@@ -3023,7 +3034,7 @@
         <v>-9.2112697399829209</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3031,13 +3042,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3046,7 +3057,7 @@
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I46">
         <v>38.753979642376599</v>
@@ -3055,7 +3066,7 @@
         <v>-9.2190354296936992</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3063,10 +3074,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
@@ -3081,7 +3092,7 @@
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I47">
         <v>38.758772032971301</v>
@@ -3090,7 +3101,7 @@
         <v>-9.2073122601946302</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3098,13 +3109,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -3113,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I48">
         <v>38.756243940499601</v>
@@ -3122,7 +3133,7 @@
         <v>-9.21176183426123</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -3130,13 +3141,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -3145,7 +3156,7 @@
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I49">
         <v>38.756794772787501</v>
@@ -3154,7 +3165,7 @@
         <v>-9.2115737165716691</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3162,13 +3173,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -3177,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I50">
         <v>38.756557440154701</v>
@@ -3186,7 +3197,7 @@
         <v>-9.2117255184208098</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3194,13 +3205,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3212,7 +3223,7 @@
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I51">
         <v>38.756455662214499</v>
@@ -3221,7 +3232,7 @@
         <v>-9.2117381018591402</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3229,13 +3240,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3247,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I52">
         <v>38.757022130529698</v>
@@ -3256,7 +3267,7 @@
         <v>-9.2113558564337605</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3264,10 +3275,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -3282,7 +3293,7 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I53">
         <v>38.750891058530001</v>
@@ -3291,7 +3302,7 @@
         <v>-9.2110741318476599</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3299,10 +3310,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -3317,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I54">
         <v>38.758806477411099</v>
@@ -3326,7 +3337,7 @@
         <v>-9.20804032793035</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3334,10 +3345,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -3352,7 +3363,7 @@
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I55">
         <v>38.750730030533603</v>
@@ -3361,7 +3372,7 @@
         <v>-9.2112338349614902</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3369,10 +3380,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -3387,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I56">
         <v>38.751273630073896</v>
@@ -3396,7 +3407,7 @@
         <v>-9.2109127788009708</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3404,16 +3415,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57">
         <v>2010</v>
@@ -3422,7 +3433,7 @@
         <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I57">
         <v>38.759326945822203</v>
@@ -3431,7 +3442,7 @@
         <v>-9.2069145510587198</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3439,16 +3450,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F58">
         <v>2010</v>
@@ -3457,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I58">
         <v>38.759455672502597</v>
@@ -3466,7 +3477,7 @@
         <v>-9.2018283249476003</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3474,16 +3485,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F59">
         <v>2010</v>
@@ -3492,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I59">
         <v>38.759511528733299</v>
@@ -3501,7 +3512,7 @@
         <v>-9.2016747556310197</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3509,16 +3520,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F60">
         <v>2010</v>
@@ -3527,7 +3538,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I60">
         <v>38.7593834608113</v>
@@ -3536,7 +3547,7 @@
         <v>-9.2020268858121899</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3544,16 +3555,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F61">
         <v>2010</v>
@@ -3562,7 +3573,7 @@
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I61">
         <v>38.759443583824499</v>
@@ -3571,7 +3582,7 @@
         <v>-9.2022951711029304</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3579,16 +3590,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F62">
         <v>2010</v>
@@ -3597,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I62">
         <v>38.759498674074898</v>
@@ -3606,7 +3617,7 @@
         <v>-9.2021436730742998</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3614,16 +3625,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F63">
         <v>2010</v>
@@ -3632,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I63">
         <v>38.759582777948097</v>
@@ -3641,7 +3652,7 @@
         <v>-9.2019124209052503</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3649,16 +3660,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F64">
         <v>2010</v>
@@ -3667,7 +3678,7 @@
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I64">
         <v>38.759559447703801</v>
@@ -3676,7 +3687,7 @@
         <v>-9.2015429953893193</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3684,16 +3695,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F65">
         <v>2010</v>
@@ -3702,7 +3713,7 @@
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I65">
         <v>38.7593761793959</v>
@@ -3711,7 +3722,7 @@
         <v>-9.20725501730651</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3719,16 +3730,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66">
         <v>2014</v>
@@ -3737,7 +3748,7 @@
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I66">
         <v>38.741172877223498</v>
@@ -3746,7 +3757,7 @@
         <v>-9.2159618094651599</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3754,16 +3765,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F67">
         <v>2014</v>
@@ -3772,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I67">
         <v>38.741304321084797</v>
@@ -3781,7 +3792,7 @@
         <v>-9.2150501184426901</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -3789,25 +3800,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F68">
         <v>2015</v>
       </c>
       <c r="G68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I68">
         <v>38.774177437991803</v>
@@ -3816,7 +3827,7 @@
         <v>-9.2325434320481907</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3824,16 +3835,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F69">
         <v>2015</v>
@@ -3842,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I69">
         <v>38.752415493782003</v>
@@ -3851,7 +3862,7 @@
         <v>-9.2338742950296009</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -3859,13 +3870,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3877,7 +3888,7 @@
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I70">
         <v>38.755466558978704</v>
@@ -3886,7 +3897,7 @@
         <v>-9.2196641590965598</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3897,13 +3908,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F71">
         <v>2014</v>
@@ -3912,7 +3923,7 @@
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I71">
         <v>38.766993854723601</v>
@@ -3921,7 +3932,7 @@
         <v>-9.2273796195421003</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3932,13 +3943,13 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F72">
         <v>2014</v>
@@ -3947,7 +3958,7 @@
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I72">
         <v>38.766973454724798</v>
@@ -3956,7 +3967,7 @@
         <v>-9.2274755417404108</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3967,13 +3978,13 @@
         <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F73">
         <v>2014</v>
@@ -3982,7 +3993,7 @@
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I73">
         <v>38.766949604649099</v>
@@ -3991,7 +4002,7 @@
         <v>-9.2275830089302797</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3999,13 +4010,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -4017,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I74">
         <v>38.758152824054797</v>
@@ -4026,7 +4037,7 @@
         <v>-9.2202082758883694</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4034,16 +4045,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F75">
         <v>2015</v>
@@ -4052,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I75">
         <v>38.757076978523003</v>
@@ -4061,7 +4072,7 @@
         <v>-9.2340894040636599</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4069,16 +4080,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F76">
         <v>2015</v>
@@ -4087,7 +4098,7 @@
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I76">
         <v>38.757686653658297</v>
@@ -4096,7 +4107,7 @@
         <v>-9.2425468034752605</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4104,13 +4115,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -4122,7 +4133,7 @@
         <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I77">
         <v>38.756201096589798</v>
@@ -4131,7 +4142,7 @@
         <v>-9.21792177720463</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4139,16 +4150,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F78">
         <v>2016</v>
@@ -4157,7 +4168,7 @@
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I78">
         <v>38.756909716361498</v>
@@ -4166,7 +4177,7 @@
         <v>-9.2358595234701895</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4174,16 +4185,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F79">
         <v>2014</v>
@@ -4192,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I79">
         <v>38.756318605345498</v>
@@ -4201,7 +4212,7 @@
         <v>-9.2357529646621295</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4209,16 +4220,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F80">
         <v>2014</v>
@@ -4227,7 +4238,7 @@
         <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I80">
         <v>38.756043785626403</v>
@@ -4236,7 +4247,7 @@
         <v>-9.2364136645341794</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4244,16 +4255,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F81">
         <v>2014</v>
@@ -4262,7 +4273,7 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I81">
         <v>38.7559942318412</v>
@@ -4271,7 +4282,7 @@
         <v>-9.2365341071654594</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4279,16 +4290,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F82">
         <v>2014</v>
@@ -4297,7 +4308,7 @@
         <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I82">
         <v>38.755939731348398</v>
@@ -4306,7 +4317,7 @@
         <v>-9.2366651836175606</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4314,16 +4325,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F83">
         <v>2014</v>
@@ -4332,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I83">
         <v>38.755795007376001</v>
@@ -4341,7 +4352,7 @@
         <v>-9.2370186559246896</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4349,16 +4360,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F84">
         <v>2014</v>
@@ -4367,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I84">
         <v>38.7556238590806</v>
@@ -4376,7 +4387,7 @@
         <v>-9.2374725972013199</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4384,16 +4395,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F85">
         <v>2014</v>
@@ -4402,7 +4413,7 @@
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I85">
         <v>38.755533015800701</v>
@@ -4411,7 +4422,7 @@
         <v>-9.2378395512212901</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4419,16 +4430,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F86">
         <v>2014</v>
@@ -4437,7 +4448,7 @@
         <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I86">
         <v>38.755421599586398</v>
@@ -4446,7 +4457,7 @@
         <v>-9.2395430270455901</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4454,16 +4465,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F87">
         <v>2014</v>
@@ -4472,7 +4483,7 @@
         <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I87">
         <v>38.7554174747914</v>
@@ -4481,7 +4492,7 @@
         <v>-9.2397256215503791</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4489,16 +4500,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F88">
         <v>2014</v>
@@ -4507,7 +4518,7 @@
         <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I88">
         <v>38.755490605586203</v>
@@ -4516,7 +4527,7 @@
         <v>-9.2397716274814492</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4524,16 +4535,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F89">
         <v>2014</v>
@@ -4542,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I89">
         <v>38.755401320049799</v>
@@ -4551,7 +4562,7 @@
         <v>-9.2403955749297992</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4559,16 +4570,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E90" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F90">
         <v>2014</v>
@@ -4577,7 +4588,7 @@
         <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I90">
         <v>38.755647281947603</v>
@@ -4586,7 +4597,7 @@
         <v>-9.2435623123311306</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4594,16 +4605,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F91">
         <v>2014</v>
@@ -4612,7 +4623,7 @@
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I91">
         <v>38.7556762131494</v>
@@ -4621,7 +4632,7 @@
         <v>-9.2449155032769497</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4629,16 +4640,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F92">
         <v>2014</v>
@@ -4647,7 +4658,7 @@
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I92">
         <v>38.755785494351997</v>
@@ -4656,7 +4667,7 @@
         <v>-9.2451750244254995</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4664,16 +4675,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F93">
         <v>2014</v>
@@ -4682,7 +4693,7 @@
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I93">
         <v>38.755887387491903</v>
@@ -4691,7 +4702,7 @@
         <v>-9.24542046591705</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4699,16 +4710,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F94">
         <v>2014</v>
@@ -4717,7 +4728,7 @@
         <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I94">
         <v>38.756027572996899</v>
@@ -4726,7 +4737,7 @@
         <v>-9.2457594890394308</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4734,16 +4745,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F95">
         <v>2014</v>
@@ -4752,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I95">
         <v>38.756195819147898</v>
@@ -4761,7 +4772,7 @@
         <v>-9.2461691925936904</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4769,16 +4780,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F96">
         <v>2014</v>
@@ -4787,7 +4798,7 @@
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I96">
         <v>38.756273926884603</v>
@@ -4796,7 +4807,7 @@
         <v>-9.2463562987701202</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4804,13 +4815,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -4822,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I97">
         <v>38.758850376740398</v>
@@ -4831,7 +4842,7 @@
         <v>-9.22032836987899</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4839,13 +4850,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E98" t="s">
         <v>12</v>
@@ -4857,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I98">
         <v>38.758378375745899</v>
@@ -4866,7 +4877,7 @@
         <v>-9.22049907651596</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4877,13 +4888,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F99">
         <v>2016</v>
@@ -4892,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I99">
         <v>38.752512538617701</v>
@@ -4901,7 +4912,7 @@
         <v>-9.2330873890765393</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4912,13 +4923,13 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F100">
         <v>2016</v>
@@ -4927,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I100">
         <v>38.7583803865598</v>
@@ -4936,7 +4947,7 @@
         <v>-9.2348977777237806</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4947,13 +4958,13 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" t="s">
         <v>277</v>
       </c>
-      <c r="D101" t="s">
-        <v>275</v>
-      </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F101">
         <v>2016</v>
@@ -4962,7 +4973,7 @@
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I101">
         <v>38.758709565948301</v>
@@ -4971,7 +4982,7 @@
         <v>-9.2348232752559003</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4979,16 +4990,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F102">
         <v>2016</v>
@@ -4997,7 +5008,7 @@
         <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I102">
         <v>38.7585653494871</v>
@@ -5006,7 +5017,7 @@
         <v>-9.2347785951486792</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5017,13 +5028,13 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F103">
         <v>2016</v>
@@ -5032,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I103">
         <v>38.757669331146197</v>
@@ -5041,7 +5052,7 @@
         <v>-9.2419963577626199</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5052,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s">
         <v>285</v>
       </c>
-      <c r="D104" t="s">
-        <v>283</v>
-      </c>
       <c r="E104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F104">
         <v>2016</v>
@@ -5067,7 +5078,7 @@
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I104">
         <v>38.757691640102699</v>
@@ -5076,7 +5087,7 @@
         <v>-9.2419482817619496</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5087,13 +5098,13 @@
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E105" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F105">
         <v>2016</v>
@@ -5102,7 +5113,7 @@
         <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I105">
         <v>38.752513457271803</v>
@@ -5111,7 +5122,7 @@
         <v>-9.2333706742302208</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5122,13 +5133,13 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F106">
         <v>2017</v>
@@ -5137,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I106">
         <v>38.758177891119701</v>
@@ -5146,7 +5157,7 @@
         <v>-9.2350431039425995</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5157,13 +5168,13 @@
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F107">
         <v>2017</v>
@@ -5172,7 +5183,7 @@
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I107">
         <v>38.758757834479397</v>
@@ -5181,7 +5192,7 @@
         <v>-9.2333511557581698</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5192,10 +5203,10 @@
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
@@ -5207,7 +5218,7 @@
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I108">
         <v>38.762725291978398</v>
@@ -5216,7 +5227,7 @@
         <v>-9.22867018128367</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5227,13 +5238,13 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F109">
         <v>2017</v>
@@ -5242,7 +5253,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I109">
         <v>38.7641935292</v>
@@ -5251,7 +5262,7 @@
         <v>-9.2305203052026492</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5265,7 +5276,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E110" t="s">
         <v>12</v>
@@ -5277,7 +5288,7 @@
         <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I110">
         <v>38.756994355542801</v>
@@ -5286,7 +5297,7 @@
         <v>-9.2198970229282295</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -5297,13 +5308,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F111">
         <v>2017</v>
@@ -5312,7 +5323,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I111">
         <v>38.7577096252082</v>
@@ -5321,7 +5332,7 @@
         <v>-9.2421271170834096</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/arte_urbana_manual.xlsx
+++ b/data/arte_urbana_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao.palmeiro/Documents/GitHub/amadora-arte-urbana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3C19A-6193-CB4B-A587-CA1A4BD154E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC67DA0-5F08-2349-B6C1-DCB1DE01A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -1056,6 +1056,33 @@
   <si>
     <t>«Acho que quem gosta de graffiti acaba sempre por fazer quase o ritual todo.»
 Peça realizada no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
+  </si>
+  <si>
+    <t>«Era mais influenciado pelo que vivia no dia-a-dia.»
+Mural localizado no Bairro da Cova da Moura, na freguesia da Damaia. Exibe uma figura mediática e vista como um exemplo na comunidade, o intérprete Bob Marley.</t>
+  </si>
+  <si>
+    <t>«A expressão graffiti vem da expressão “getting up”, que é tu levantares o teu nome, seres alguém, seres reconhecido na terra onde vives.»
+Mural localizado no Bairro da Cova da Moura, na freguesia da Damaia e que presta homenagem ao jogador de futebol Eusébio.</t>
+  </si>
+  <si>
+    <t>«Este é um dos meus murais preferidos. Sempre fui um frequentador do festival Amadora BD e sou muito influenciado pela banda desenhada. Este mural foi o primeiro no qual desenvolvi um estilo que ainda não tinha transportado para uma parede.»</t>
+  </si>
+  <si>
+    <t>Mural realizado no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
+  </si>
+  <si>
+    <t>Mural localizado nas traseiras da Escola Secundária D. João V, na Damaia. Este mural representa uma homenagem aos bombeiros, vítimas dos incêndios.</t>
+  </si>
+  <si>
+    <t>Mural localizado nas traseiras da Escola Secundária D. João V, na Damaia.</t>
+  </si>
+  <si>
+    <t>Mural localizado nas traseiras da Escola Secundária D. João V, na Damaia. Odeith colaborou com a artista urbana argentina Milu Correch na realização deste mural.</t>
+  </si>
+  <si>
+    <t>«[O graffiti] é uma manifestação e se tu vires acho que nas zonas com mais população, ou seja, onde há prédios maiores, onde há se calhar guetos é onde as pessoas se tendem a manifestar e arriscar, e isso sempre foi assim e há-de ser.»
+Mural localizado nas traseiras da Escola Secundária D. João V, na Damaia.</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1483,8 @@
     <col min="8" max="8" width="71.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="100.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="100.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="125.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1569,6 +1597,9 @@
       <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1604,6 +1635,9 @@
       <c r="K4" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1639,8 +1673,11 @@
       <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1675,7 +1712,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2025,7 +2062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2060,7 +2097,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2095,7 +2132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2130,7 +2167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2165,7 +2202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2200,7 +2237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2235,7 +2272,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2270,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2305,7 +2342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2340,7 +2377,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2374,8 +2411,11 @@
       <c r="K26" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L26" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2409,8 +2449,11 @@
       <c r="K27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L27" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2444,8 +2487,11 @@
       <c r="K28" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="L28" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2479,8 +2525,11 @@
       <c r="K29" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L29" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2514,8 +2563,11 @@
       <c r="K30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="L30" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2549,8 +2601,11 @@
       <c r="K31" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L31" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2687,7 +2742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2722,7 +2777,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3136,7 +3191,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3760,7 +3815,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3795,7 +3850,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3865,7 +3920,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4040,7 +4095,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4075,7 +4130,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4145,7 +4200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4215,7 +4270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4250,7 +4305,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4285,7 +4340,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4320,7 +4375,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4390,7 +4445,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4425,7 +4480,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4460,7 +4515,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4530,7 +4585,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4880,7 +4935,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4915,7 +4970,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4950,7 +5005,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4985,7 +5040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5020,7 +5075,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5055,7 +5110,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5090,7 +5145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5125,7 +5180,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5195,7 +5250,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5230,7 +5285,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5265,7 +5320,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5300,7 +5355,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>

--- a/data/arte_urbana_manual.xlsx
+++ b/data/arte_urbana_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao.palmeiro/Documents/GitHub/amadora-arte-urbana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC67DA0-5F08-2349-B6C1-DCB1DE01A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DDD18-F6F6-4149-8938-F106551D9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -1083,6 +1083,31 @@
   <si>
     <t>«[O graffiti] é uma manifestação e se tu vires acho que nas zonas com mais população, ou seja, onde há prédios maiores, onde há se calhar guetos é onde as pessoas se tendem a manifestar e arriscar, e isso sempre foi assim e há-de ser.»
 Mural localizado nas traseiras da Escola Secundária D. João V, na Damaia.</t>
+  </si>
+  <si>
+    <t>Hall of Fame localizado nas traseiras da Escola Secundária D. João V, na Damaia.</t>
+  </si>
+  <si>
+    <t>Autoria_manual</t>
+  </si>
+  <si>
+    <t>Autoria_extra_manual</t>
+  </si>
+  <si>
+    <t>Raps, Vespa, Sken, New, Styler, 1ma63, Creyz, Vile, Rote, Odeith, Eko, Molin</t>
+  </si>
+  <si>
+    <t>Eko, membro da GVS Crew: «O meu interesse surgiu no ano de 1997, ano esse que se assistia a um grande boom da cultura hip-hop, desse boom surgem muitas crews e muitos writers. Eu fui um deles, surjo no seio de uma das crews mais antigas de Portugal, GVS, que ainda está activa, com writers espalhados por todo o mundo.»</t>
+  </si>
+  <si>
+    <t>«Comecei a pintar em 1989. Para mim o Graffiti é estares artilhado de formas, de contextos para poderes singrar na vida.»</t>
+  </si>
+  <si>
+    <t>«O meu interesse pelo Graffiti surgiu porque os meus primos ouviam rap, desenhavam nas calças de ganga e eu imitava. Depois segui para as paredes.»
+Mural realizado e que presta homenagem ao artista urbano Broke.</t>
+  </si>
+  <si>
+    <t>Peça realizada no âmbito do Concurso de Pintura de Murais sobre Banda Desenhada, promovido pelas Estradas de Portugal e em parceria com a Câmara Municipal da Amadora.</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1485,9 +1510,11 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="100.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="125.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="58.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1551,14 @@
       <c r="L1" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1563,7 +1596,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1601,7 +1634,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1639,7 +1672,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1677,7 +1710,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1711,8 +1744,11 @@
       <c r="K6" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1746,8 +1782,11 @@
       <c r="K7" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1781,8 +1820,11 @@
       <c r="K8" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1816,8 +1858,11 @@
       <c r="K9" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1851,8 +1896,11 @@
       <c r="K10" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1886,8 +1934,11 @@
       <c r="K11" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1921,8 +1972,11 @@
       <c r="K12" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1956,8 +2010,11 @@
       <c r="K13" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L13" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1992,7 +2049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2027,7 +2084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2636,8 +2693,11 @@
       <c r="K32" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2671,8 +2731,17 @@
       <c r="K33" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L33" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2706,8 +2775,11 @@
       <c r="K34" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L34" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2741,8 +2813,11 @@
       <c r="K35" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="L35" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2777,7 +2852,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2812,7 +2887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2847,7 +2922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2882,7 +2957,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2917,7 +2992,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2952,7 +3027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2987,7 +3062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3022,7 +3097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3057,7 +3132,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3092,7 +3167,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3124,7 +3199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3159,7 +3234,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
